--- a/surplus production model-SardAustralAysén.xlsx
+++ b/surplus production model-SardAustralAysén.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2022/SARDINAAUSTRAL_AYSEN/PRIMER_INFORME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5A1F26-6545-5840-918C-894EC5EAF978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5B5B9-3EA2-8B4A-B51E-0ABA53B5F8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="780" windowWidth="23180" windowHeight="21920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2579,7 +2579,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -2777,7 +2777,7 @@
         <v>21973</v>
       </c>
       <c r="D11" s="18">
-        <f t="shared" ref="D11:D18" si="5">+D10+$B$3*D10*(1-(D10/$B$4))-B10</f>
+        <f t="shared" ref="D11:D17" si="5">+D10+$B$3*D10*(1-(D10/$B$4))-B10</f>
         <v>11537.347152106162</v>
       </c>
       <c r="E11" s="1">

--- a/surplus production model-SardAustralAysén.xlsx
+++ b/surplus production model-SardAustralAysén.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2022/SARDINAAUSTRAL_AYSEN/PRIMER_INFORME/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5B5B9-3EA2-8B4A-B51E-0ABA53B5F8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB43AD3A-1EA4-BA42-9BB3-FEBE5A773D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="780" windowWidth="23180" windowHeight="21920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18920" yWindow="500" windowWidth="32280" windowHeight="21920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shaefer model" sheetId="3" r:id="rId1"/>
@@ -2578,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -2976,7 +2976,7 @@
         <v>2021</v>
       </c>
       <c r="B17" s="10">
-        <v>4488</v>
+        <v>2600</v>
       </c>
       <c r="C17" s="15">
         <v>58922</v>
@@ -3015,7 +3015,7 @@
       <c r="C18" s="11"/>
       <c r="D18" s="18">
         <f t="shared" ref="D18" si="6">+D17+$B$3*D17*(1-(D17/$B$4))-B17</f>
-        <v>7951.8758552965865</v>
+        <v>9839.8758552965865</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ref="E18" si="7">F18/D18</f>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="F18" s="18">
         <f t="shared" ref="F18" si="8">D18*qpar</f>
-        <v>30801.247722084707</v>
+        <v>38114.334188413472</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" ref="G18" si="9">+C18</f>
@@ -3034,8 +3034,8 @@
         <v>#NUM!</v>
       </c>
       <c r="I18" s="17">
-        <f t="shared" ref="I18" si="11">+D18/kpar</f>
-        <v>0.43653074853750634</v>
+        <f>+D18/kpar</f>
+        <v>0.54017548196098508</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
